--- a/Resources/NOAA_Solar_Calculations_day.xlsx
+++ b/Resources/NOAA_Solar_Calculations_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASHLEY\webapps\PVPredictor\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A08D331D-4C8F-48F8-B81D-C03E37117A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1012CCB8-1C13-4F40-B5C0-C132DF4240E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -142,12 +142,19 @@
     <numFmt numFmtId="168" formatCode="0.00000000"/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -174,12 +181,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -197,18 +209,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -217,20 +230,26 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
+  <cellStyles count="6">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Heading" xfId="2"/>
+    <cellStyle name="Heading1" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Result" xfId="4"/>
+    <cellStyle name="Result2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6054,7 +6073,7 @@
   <dimension ref="A1:AJ241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D2" sqref="D2:AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,7 +6087,8 @@
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="23" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="23" width="9.42578125" customWidth="1"/>
     <col min="24" max="24" width="10.5703125" customWidth="1"/>
     <col min="25" max="28" width="9.42578125" customWidth="1"/>
     <col min="29" max="29" width="10.42578125" customWidth="1"/>
@@ -6077,11 +6097,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6183,131 +6203,132 @@
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="D2" s="3">
+      <c r="D2" s="10">
         <f t="shared" ref="D2:D65" si="0">$B$7</f>
         <v>40350</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="11">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="12">
         <f>D2+2415018.5+E2</f>
         <v>2455368.5041666669</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="13">
         <f>$B$5/24</f>
         <v>-0.29166666666666669</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="14">
         <f t="shared" ref="H2:H65" si="1">D2+2415018.5+E2-$B$5/24</f>
         <v>2455368.7958333334</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="12">
         <f>(H2-2451545)/36525</f>
         <v>0.10468982432124285</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="15"/>
+      <c r="K2" s="12">
         <f>MOD(280.46646+I2*(36000.76983+I2*0.0003032),360)</f>
         <v>89.380732255259318</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="15">
         <f t="shared" ref="L2:L65" si="2">357.52911+I2*(35999.05029-0.0001537*I2)</f>
         <v>4126.2633589071411</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="15">
         <f t="shared" ref="M2:M65" si="3">0.016708634-I2*(0.000042037+0.0000001267*I2)</f>
         <v>1.6704231765228162E-2</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="15">
         <f t="shared" ref="N2:N65" si="4">SIN(RADIANS(L2))*(1.914602-I2*(0.004817+0.000014*I2))+SIN(RADIANS(2*L2))*(0.019993-0.000101*I2)+SIN(RADIANS(3*L2))*0.000289</f>
         <v>0.44549228519368134</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="15">
         <f t="shared" ref="O2:O65" si="5">K2+N2</f>
         <v>89.826224540452998</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="15">
         <f t="shared" ref="P2:P65" si="6">L2+N2</f>
         <v>4126.7088511923348</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="15">
         <f t="shared" ref="Q2:Q65" si="7">(1.000001018*(1-M2*M2))/(1+M2*COS(RADIANS(P2)))</f>
         <v>1.0162428418623726</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="15">
         <f t="shared" ref="R2:R65" si="8">O2-0.00569-0.00478*SIN(RADIANS(125.04-1934.136*I2))</f>
         <v>89.825200228448253</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="15">
         <f t="shared" ref="S2:S65" si="9">23+(26+((21.448-I2*(46.815+I2*(0.00059-I2*0.001813))))/60)/60</f>
         <v>23.437929705968958</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="15">
         <f t="shared" ref="T2:T65" si="10">S2+0.00256*COS(RADIANS(125.04-1934.136*I2))</f>
         <v>23.438486218294376</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="15">
         <f t="shared" ref="U2:U65" si="11">DEGREES(ATAN2(COS(RADIANS(R2)),COS(RADIANS(T2))*SIN(RADIANS(R2))))</f>
         <v>89.809480084415625</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="15">
         <f t="shared" ref="V2:V65" si="12">DEGREES(ASIN(SIN(RADIANS(T2))*SIN(RADIANS(R2))))</f>
         <v>23.438370619286854</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="15">
         <f t="shared" ref="W2:W65" si="13">TAN(RADIANS(T2/2))*TAN(RADIANS(T2/2))</f>
         <v>4.3031489687856965E-2</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="15">
         <f t="shared" ref="X2:X65" si="14">4*DEGREES(W2*SIN(2*RADIANS(K2))-2*M2*SIN(RADIANS(L2))+4*M2*W2*SIN(RADIANS(L2))*COS(2*RADIANS(K2))-0.5*W2*W2*SIN(4*RADIANS(K2))-1.25*M2*M2*SIN(2*RADIANS(L2)))</f>
         <v>-1.7153675784683604</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="15">
         <f t="shared" ref="Y2:Y65" si="15">DEGREES(ACOS(COS(RADIANS(90.833))/(COS(RADIANS($B$3))*COS(RADIANS(V2)))-TAN(RADIANS($B$3))*TAN(RADIANS(V2))))</f>
         <v>112.61041006988431</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="11">
         <f t="shared" ref="Z2:Z65" si="16">(720-4*$B$4-X2+$B$5*60)/1440</f>
         <v>0.50119122748504752</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="11">
         <f t="shared" ref="AA2:AA65" si="17">Z2-Y2*4/1440</f>
         <v>0.18838453284647999</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="11">
         <f t="shared" ref="AB2:AB65" si="18">Z2+Y2*4/1440</f>
         <v>0.8139979221236151</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="15">
         <f t="shared" ref="AC2:AC65" si="19">8*Y2</f>
         <v>900.88328055907448</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="15">
         <f t="shared" ref="AD2:AD65" si="20">MOD(E2*1440+X2+4*$B$4-60*$B$5,1440)</f>
         <v>4.2846324215316258</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="15">
         <f t="shared" ref="AE2:AE65" si="21">IF(AD2/4&lt;0,AD2/4+180,AD2/4-180)</f>
         <v>-178.92884189461711</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="15">
         <f t="shared" ref="AF2:AF65" si="22">DEGREES(ACOS(SIN(RADIANS($B$3))*SIN(RADIANS(V2))+COS(RADIANS($B$3))*COS(RADIANS(V2))*COS(RADIANS(AE2))))</f>
         <v>116.55376211918129</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="15">
         <f t="shared" ref="AG2:AG65" si="23">90-AF2</f>
         <v>-26.553762119181286</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="15">
         <f t="shared" ref="AH2:AH65" si="24">IF(AG2&gt;85,0,IF(AG2&gt;5,58.1/TAN(RADIANS(AG2))-0.07/POWER(TAN(RADIANS(AG2)),3)+0.000086/POWER(TAN(RADIANS(AG2)),5),IF(AG2&gt;-0.575,1735+AG2*(-518.2+AG2*(103.4+AG2*(-12.79+AG2*0.711))),-20.772/TAN(RADIANS(AG2)))))/3600</f>
         <v>1.154568659192415E-2</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="15">
         <f t="shared" ref="AI2:AI65" si="25">AG2+AH2</f>
         <v>-26.542216432589363</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="15">
         <f t="shared" ref="AJ2:AJ65" si="26">IF(AE2&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS($B$3))*COS(RADIANS(AF2)))-SIN(RADIANS(V2)))/(COS(RADIANS($B$3))*SIN(RADIANS(AF2)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS($B$3))*COS(RADIANS(AF2)))-SIN(RADIANS(V2)))/(COS(RADIANS($B$3))*SIN(RADIANS(AF2))))),360))</f>
         <v>1.0986711838847896</v>
       </c>
@@ -6316,7 +6337,7 @@
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>40</v>
       </c>
       <c r="D3" s="3">
@@ -6329,7 +6350,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f t="shared" si="1"/>
         <v>2455368.7999999998</v>
       </c>
@@ -6337,7 +6358,7 @@
         <f>(H3-2451545)/36525</f>
         <v>0.10468993839835219</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <f t="shared" ref="K2:K65" si="28">MOD(280.46646+I3*(36000.76983+I3*0.0003032),360)</f>
         <v>89.384839119023127</v>
       </c>
@@ -6446,7 +6467,7 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>-105</v>
       </c>
       <c r="D4" s="3">
@@ -6459,7 +6480,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8041666667</v>
       </c>
@@ -6467,7 +6488,7 @@
         <f t="shared" ref="I2:I65" si="29">(H4-2451545)/36525</f>
         <v>0.10469005247547428</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <f t="shared" si="28"/>
         <v>89.388945983245321</v>
       </c>
@@ -6576,7 +6597,7 @@
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>-7</v>
       </c>
       <c r="D5" s="3">
@@ -6589,7 +6610,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8083333331</v>
       </c>
@@ -6597,7 +6618,7 @@
         <f t="shared" si="29"/>
         <v>0.10469016655258361</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <f t="shared" si="28"/>
         <v>89.393052847007766</v>
       </c>
@@ -6713,7 +6734,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8125</v>
       </c>
@@ -6721,7 +6742,7 @@
         <f t="shared" si="29"/>
         <v>0.10469028062970569</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <f t="shared" si="28"/>
         <v>89.397159711230415</v>
       </c>
@@ -6830,7 +6851,7 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>40350</v>
       </c>
       <c r="D7" s="3">
@@ -6843,7 +6864,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8166666664</v>
       </c>
@@ -6851,7 +6872,7 @@
         <f t="shared" si="29"/>
         <v>0.10469039470681502</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f t="shared" si="28"/>
         <v>89.40126657499377</v>
       </c>
@@ -6967,7 +6988,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8208333333</v>
       </c>
@@ -6975,7 +6996,7 @@
         <f t="shared" si="29"/>
         <v>0.1046905087839371</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f t="shared" si="28"/>
         <v>89.405373439215964</v>
       </c>
@@ -7091,7 +7112,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8249999997</v>
       </c>
@@ -7099,7 +7120,7 @@
         <f t="shared" si="29"/>
         <v>0.10469062286104643</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <f t="shared" si="28"/>
         <v>89.409480302978409</v>
       </c>
@@ -7215,7 +7236,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8291666666</v>
       </c>
@@ -7223,7 +7244,7 @@
         <f t="shared" si="29"/>
         <v>0.10469073693816851</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <f t="shared" si="28"/>
         <v>89.413587167200603</v>
       </c>
@@ -7339,7 +7360,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>2455368.833333333</v>
       </c>
@@ -7347,7 +7368,7 @@
         <f t="shared" si="29"/>
         <v>0.10469085101527784</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <f t="shared" si="28"/>
         <v>89.417694030963958</v>
       </c>
@@ -7463,7 +7484,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8374999999</v>
       </c>
@@ -7471,7 +7492,7 @@
         <f t="shared" si="29"/>
         <v>0.10469096509239992</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <f t="shared" si="28"/>
         <v>89.421800895186152</v>
       </c>
@@ -7587,7 +7608,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8416666663</v>
       </c>
@@ -7595,7 +7616,7 @@
         <f t="shared" si="29"/>
         <v>0.10469107916950925</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <f t="shared" si="28"/>
         <v>89.425907758949052</v>
       </c>
@@ -7711,7 +7732,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8458333332</v>
       </c>
@@ -7719,7 +7740,7 @@
         <f t="shared" si="29"/>
         <v>0.10469119324663133</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <f t="shared" si="28"/>
         <v>89.430014623171246</v>
       </c>
@@ -7835,7 +7856,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8499999996</v>
       </c>
@@ -7843,7 +7864,7 @@
         <f t="shared" si="29"/>
         <v>0.10469130732374066</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <f t="shared" si="28"/>
         <v>89.4341214869346</v>
       </c>
@@ -7959,7 +7980,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8541666665</v>
       </c>
@@ -7967,7 +7988,7 @@
         <f t="shared" si="29"/>
         <v>0.10469142140086274</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <f t="shared" si="28"/>
         <v>89.438228351156795</v>
       </c>
@@ -8083,7 +8104,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8583333334</v>
       </c>
@@ -8091,7 +8112,7 @@
         <f t="shared" si="29"/>
         <v>0.10469153547798482</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <f t="shared" si="28"/>
         <v>89.442335215378534</v>
       </c>
@@ -8207,7 +8228,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8624999998</v>
       </c>
@@ -8215,7 +8236,7 @@
         <f t="shared" si="29"/>
         <v>0.10469164955509415</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <f t="shared" si="28"/>
         <v>89.446442079141434</v>
       </c>
@@ -8331,7 +8352,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8666666667</v>
       </c>
@@ -8339,7 +8360,7 @@
         <f t="shared" si="29"/>
         <v>0.10469176363221623</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <f t="shared" si="28"/>
         <v>89.450548943364083</v>
       </c>
@@ -8455,7 +8476,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8708333331</v>
       </c>
@@ -8463,7 +8484,7 @@
         <f t="shared" si="29"/>
         <v>0.10469187770932556</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <f t="shared" si="28"/>
         <v>89.454655807127438</v>
       </c>
@@ -8579,7 +8600,7 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="1"/>
         <v>2455368.875</v>
       </c>
@@ -8587,7 +8608,7 @@
         <f t="shared" si="29"/>
         <v>0.10469199178644764</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <f t="shared" si="28"/>
         <v>89.458762671348723</v>
       </c>
@@ -8703,7 +8724,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8791666664</v>
       </c>
@@ -8711,7 +8732,7 @@
         <f t="shared" si="29"/>
         <v>0.10469210586355697</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <f t="shared" si="28"/>
         <v>89.462869535112077</v>
       </c>
@@ -8827,7 +8848,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8833333333</v>
       </c>
@@ -8835,7 +8856,7 @@
         <f t="shared" si="29"/>
         <v>0.10469221994067905</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <f t="shared" si="28"/>
         <v>89.466976399334271</v>
       </c>
@@ -8951,7 +8972,7 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8874999997</v>
       </c>
@@ -8959,7 +8980,7 @@
         <f t="shared" si="29"/>
         <v>0.10469233401778838</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <f t="shared" si="28"/>
         <v>89.471083263097626</v>
       </c>
@@ -9075,7 +9096,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f t="shared" si="1"/>
         <v>2455368.8916666666</v>
       </c>
@@ -9083,7 +9104,7 @@
         <f t="shared" si="29"/>
         <v>0.10469244809491046</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
         <f t="shared" si="28"/>
         <v>89.475190127319365</v>
       </c>
@@ -9199,7 +9220,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <f t="shared" si="1"/>
         <v>2455368.895833333</v>
       </c>
@@ -9207,7 +9228,7 @@
         <f t="shared" si="29"/>
         <v>0.10469256217201979</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <f t="shared" si="28"/>
         <v>89.47929699108272</v>
       </c>
@@ -9323,7 +9344,7 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9</v>
       </c>
@@ -9331,7 +9352,7 @@
         <f t="shared" si="29"/>
         <v>0.10469267624914187</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
         <f t="shared" si="28"/>
         <v>89.483403855304914</v>
       </c>
@@ -9447,7 +9468,7 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9041666663</v>
       </c>
@@ -9455,7 +9476,7 @@
         <f t="shared" si="29"/>
         <v>0.1046927903262512</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
         <f t="shared" si="28"/>
         <v>89.487510719068268</v>
       </c>
@@ -9571,7 +9592,7 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9083333332</v>
       </c>
@@ -9579,7 +9600,7 @@
         <f t="shared" si="29"/>
         <v>0.10469290440337328</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
         <f t="shared" si="28"/>
         <v>89.491617583289553</v>
       </c>
@@ -9695,7 +9716,7 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9124999996</v>
       </c>
@@ -9703,7 +9724,7 @@
         <f t="shared" si="29"/>
         <v>0.10469301848048261</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <f t="shared" si="28"/>
         <v>89.495724447052908</v>
       </c>
@@ -9819,7 +9840,7 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9166666665</v>
       </c>
@@ -9827,7 +9848,7 @@
         <f t="shared" si="29"/>
         <v>0.10469313255760469</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="5">
         <f t="shared" si="28"/>
         <v>89.499831311275557</v>
       </c>
@@ -9943,7 +9964,7 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9208333334</v>
       </c>
@@ -9951,7 +9972,7 @@
         <f t="shared" si="29"/>
         <v>0.10469324663472677</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <f t="shared" si="28"/>
         <v>89.503938175497751</v>
       </c>
@@ -10067,7 +10088,7 @@
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9249999998</v>
       </c>
@@ -10075,7 +10096,7 @@
         <f t="shared" si="29"/>
         <v>0.1046933607118361</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <f t="shared" si="28"/>
         <v>89.508045039260196</v>
       </c>
@@ -10191,7 +10212,7 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9291666667</v>
       </c>
@@ -10199,7 +10220,7 @@
         <f t="shared" si="29"/>
         <v>0.10469347478895819</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <f t="shared" si="28"/>
         <v>89.51215190348239</v>
       </c>
@@ -10315,7 +10336,7 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9333333331</v>
       </c>
@@ -10323,7 +10344,7 @@
         <f t="shared" si="29"/>
         <v>0.10469358886606751</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
         <f t="shared" si="28"/>
         <v>89.516258767245745</v>
       </c>
@@ -10439,7 +10460,7 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9375</v>
       </c>
@@ -10447,7 +10468,7 @@
         <f t="shared" si="29"/>
         <v>0.1046937029431896</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="5">
         <f t="shared" si="28"/>
         <v>89.520365631468394</v>
       </c>
@@ -10563,7 +10584,7 @@
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9416666664</v>
       </c>
@@ -10571,7 +10592,7 @@
         <f t="shared" si="29"/>
         <v>0.10469381702029892</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <f t="shared" si="28"/>
         <v>89.524472495230839</v>
       </c>
@@ -10687,7 +10708,7 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9458333333</v>
       </c>
@@ -10695,7 +10716,7 @@
         <f t="shared" si="29"/>
         <v>0.10469393109742101</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="5">
         <f t="shared" si="28"/>
         <v>89.528579359453033</v>
       </c>
@@ -10811,7 +10832,7 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9499999997</v>
       </c>
@@ -10819,7 +10840,7 @@
         <f t="shared" si="29"/>
         <v>0.10469404517453033</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="5">
         <f t="shared" si="28"/>
         <v>89.532686223216388</v>
       </c>
@@ -10935,7 +10956,7 @@
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9541666666</v>
       </c>
@@ -10943,7 +10964,7 @@
         <f t="shared" si="29"/>
         <v>0.10469415925165242</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="5">
         <f t="shared" si="28"/>
         <v>89.536793087438582</v>
       </c>
@@ -11059,7 +11080,7 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <f t="shared" si="1"/>
         <v>2455368.958333333</v>
       </c>
@@ -11067,7 +11088,7 @@
         <f t="shared" si="29"/>
         <v>0.10469427332876174</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="5">
         <f t="shared" si="28"/>
         <v>89.540899951201027</v>
       </c>
@@ -11183,7 +11204,7 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9624999999</v>
       </c>
@@ -11191,7 +11212,7 @@
         <f t="shared" si="29"/>
         <v>0.10469438740588383</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="5">
         <f t="shared" si="28"/>
         <v>89.545006815423676</v>
       </c>
@@ -11307,7 +11328,7 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9666666663</v>
       </c>
@@ -11315,7 +11336,7 @@
         <f t="shared" si="29"/>
         <v>0.10469450148299315</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="5">
         <f t="shared" si="28"/>
         <v>89.549113679186576</v>
       </c>
@@ -11431,7 +11452,7 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9708333332</v>
       </c>
@@ -11439,7 +11460,7 @@
         <f t="shared" si="29"/>
         <v>0.10469461556011524</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="5">
         <f t="shared" si="28"/>
         <v>89.553220543409225</v>
       </c>
@@ -11555,7 +11576,7 @@
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9749999996</v>
       </c>
@@ -11563,7 +11584,7 @@
         <f t="shared" si="29"/>
         <v>0.10469472963722457</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="5">
         <f t="shared" si="28"/>
         <v>89.55732740717167</v>
       </c>
@@ -11679,7 +11700,7 @@
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9791666665</v>
       </c>
@@ -11687,7 +11708,7 @@
         <f t="shared" si="29"/>
         <v>0.10469484371434665</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="5">
         <f t="shared" si="28"/>
         <v>89.561434271393864</v>
       </c>
@@ -11803,7 +11824,7 @@
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9833333334</v>
       </c>
@@ -11811,7 +11832,7 @@
         <f t="shared" si="29"/>
         <v>0.10469495779146873</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="5">
         <f t="shared" si="28"/>
         <v>89.565541135616058</v>
       </c>
@@ -11927,7 +11948,7 @@
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9874999998</v>
       </c>
@@ -11935,7 +11956,7 @@
         <f t="shared" si="29"/>
         <v>0.10469507186857806</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="5">
         <f t="shared" si="28"/>
         <v>89.569647999379413</v>
       </c>
@@ -12051,7 +12072,7 @@
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9916666667</v>
       </c>
@@ -12059,7 +12080,7 @@
         <f t="shared" si="29"/>
         <v>0.10469518594570014</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="5">
         <f t="shared" si="28"/>
         <v>89.573754863601152</v>
       </c>
@@ -12175,7 +12196,7 @@
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <f t="shared" si="1"/>
         <v>2455368.9958333331</v>
       </c>
@@ -12183,7 +12204,7 @@
         <f t="shared" si="29"/>
         <v>0.10469530002280947</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="5">
         <f t="shared" si="28"/>
         <v>89.577861727364507</v>
       </c>
@@ -12299,7 +12320,7 @@
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <f t="shared" si="1"/>
         <v>2455369</v>
       </c>
@@ -12307,7 +12328,7 @@
         <f t="shared" si="29"/>
         <v>0.10469541409993155</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="5">
         <f t="shared" si="28"/>
         <v>89.581968591586701</v>
       </c>
@@ -12423,7 +12444,7 @@
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0041666664</v>
       </c>
@@ -12431,7 +12452,7 @@
         <f t="shared" si="29"/>
         <v>0.10469552817704088</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="5">
         <f t="shared" si="28"/>
         <v>89.586075455350056</v>
       </c>
@@ -12547,7 +12568,7 @@
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0083333333</v>
       </c>
@@ -12555,7 +12576,7 @@
         <f t="shared" si="29"/>
         <v>0.10469564225416296</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="5">
         <f t="shared" si="28"/>
         <v>89.59018231957134</v>
       </c>
@@ -12671,7 +12692,7 @@
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0124999997</v>
       </c>
@@ -12679,7 +12700,7 @@
         <f t="shared" si="29"/>
         <v>0.1046957563312723</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="5">
         <f t="shared" si="28"/>
         <v>89.59428918333515</v>
       </c>
@@ -12795,7 +12816,7 @@
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="7">
+      <c r="H55" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0166666666</v>
       </c>
@@ -12803,7 +12824,7 @@
         <f t="shared" si="29"/>
         <v>0.10469587040839437</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="5">
         <f t="shared" si="28"/>
         <v>89.598396047557344</v>
       </c>
@@ -12919,7 +12940,7 @@
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <f t="shared" si="1"/>
         <v>2455369.020833333</v>
       </c>
@@ -12927,7 +12948,7 @@
         <f t="shared" si="29"/>
         <v>0.10469598448550371</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="5">
         <f t="shared" si="28"/>
         <v>89.602502911320698</v>
       </c>
@@ -13043,7 +13064,7 @@
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="7">
+      <c r="H57" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0249999999</v>
       </c>
@@ -13051,7 +13072,7 @@
         <f t="shared" si="29"/>
         <v>0.10469609856262578</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="5">
         <f t="shared" si="28"/>
         <v>89.606609775541983</v>
       </c>
@@ -13167,7 +13188,7 @@
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="7">
+      <c r="H58" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0291666663</v>
       </c>
@@ -13175,7 +13196,7 @@
         <f t="shared" si="29"/>
         <v>0.10469621263973512</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="5">
         <f t="shared" si="28"/>
         <v>89.610716639305792</v>
       </c>
@@ -13291,7 +13312,7 @@
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0333333332</v>
       </c>
@@ -13299,7 +13320,7 @@
         <f t="shared" si="29"/>
         <v>0.1046963267168572</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="5">
         <f t="shared" si="28"/>
         <v>89.614823503527987</v>
       </c>
@@ -13415,7 +13436,7 @@
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0374999996</v>
       </c>
@@ -13423,7 +13444,7 @@
         <f t="shared" si="29"/>
         <v>0.10469644079396653</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="5">
         <f t="shared" si="28"/>
         <v>89.618930367291341</v>
       </c>
@@ -13539,7 +13560,7 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0416666665</v>
       </c>
@@ -13547,7 +13568,7 @@
         <f t="shared" si="29"/>
         <v>0.10469655487108862</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="5">
         <f t="shared" si="28"/>
         <v>89.623037231513536</v>
       </c>
@@ -13663,7 +13684,7 @@
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="7">
+      <c r="H62" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0458333334</v>
       </c>
@@ -13671,7 +13692,7 @@
         <f t="shared" si="29"/>
         <v>0.10469666894821068</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="5">
         <f t="shared" si="28"/>
         <v>89.62714409573482</v>
       </c>
@@ -13787,7 +13808,7 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="7">
+      <c r="H63" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0499999998</v>
       </c>
@@ -13795,7 +13816,7 @@
         <f t="shared" si="29"/>
         <v>0.10469678302532003</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="5">
         <f t="shared" si="28"/>
         <v>89.63125095949863</v>
       </c>
@@ -13911,7 +13932,7 @@
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="7">
+      <c r="H64" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0541666667</v>
       </c>
@@ -13919,7 +13940,7 @@
         <f t="shared" si="29"/>
         <v>0.10469689710244209</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="5">
         <f t="shared" si="28"/>
         <v>89.635357823720369</v>
       </c>
@@ -14035,7 +14056,7 @@
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="7">
+      <c r="H65" s="6">
         <f t="shared" si="1"/>
         <v>2455369.0583333331</v>
       </c>
@@ -14043,7 +14064,7 @@
         <f t="shared" si="29"/>
         <v>0.10469701117955144</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="5">
         <f t="shared" si="28"/>
         <v>89.639464687484178</v>
       </c>
@@ -14159,7 +14180,7 @@
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="7">
+      <c r="H66" s="6">
         <f t="shared" ref="H66:H129" si="31">D66+2415018.5+E66-$B$5/24</f>
         <v>2455369.0625</v>
       </c>
@@ -14167,7 +14188,7 @@
         <f t="shared" ref="I66:I129" si="32">(H66-2451545)/36525</f>
         <v>0.10469712525667352</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="5">
         <f t="shared" ref="K66:K129" si="33">MOD(280.46646+I66*(36000.76983+I66*0.0003032),360)</f>
         <v>89.643571551705918</v>
       </c>
@@ -14283,7 +14304,7 @@
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="7">
+      <c r="H67" s="6">
         <f t="shared" si="31"/>
         <v>2455369.0666666664</v>
       </c>
@@ -14291,7 +14312,7 @@
         <f t="shared" si="32"/>
         <v>0.10469723933378285</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="5">
         <f t="shared" si="33"/>
         <v>89.647678415468818</v>
       </c>
@@ -14407,7 +14428,7 @@
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="7">
+      <c r="H68" s="6">
         <f t="shared" si="31"/>
         <v>2455369.0708333333</v>
       </c>
@@ -14415,7 +14436,7 @@
         <f t="shared" si="32"/>
         <v>0.10469735341090493</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="5">
         <f t="shared" si="33"/>
         <v>89.651785279691467</v>
       </c>
@@ -14531,7 +14552,7 @@
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="7">
+      <c r="H69" s="6">
         <f t="shared" si="31"/>
         <v>2455369.0749999997</v>
       </c>
@@ -14539,7 +14560,7 @@
         <f t="shared" si="32"/>
         <v>0.10469746748801426</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="5">
         <f t="shared" si="33"/>
         <v>89.655892143454821</v>
       </c>
@@ -14655,7 +14676,7 @@
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="7">
+      <c r="H70" s="6">
         <f t="shared" si="31"/>
         <v>2455369.0791666666</v>
       </c>
@@ -14663,7 +14684,7 @@
         <f t="shared" si="32"/>
         <v>0.10469758156513634</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="5">
         <f t="shared" si="33"/>
         <v>89.659999007676106</v>
       </c>
@@ -14779,7 +14800,7 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="7">
+      <c r="H71" s="6">
         <f t="shared" si="31"/>
         <v>2455369.083333333</v>
       </c>
@@ -14787,7 +14808,7 @@
         <f t="shared" si="32"/>
         <v>0.10469769564224567</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="5">
         <f t="shared" si="33"/>
         <v>89.66410587143946</v>
       </c>
@@ -14903,7 +14924,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="7">
+      <c r="H72" s="6">
         <f t="shared" si="31"/>
         <v>2455369.0874999999</v>
       </c>
@@ -14911,7 +14932,7 @@
         <f t="shared" si="32"/>
         <v>0.10469780971936775</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="5">
         <f t="shared" si="33"/>
         <v>89.668212735661655</v>
       </c>
@@ -15027,7 +15048,7 @@
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="7">
+      <c r="H73" s="6">
         <f t="shared" si="31"/>
         <v>2455369.0916666663</v>
       </c>
@@ -15035,7 +15056,7 @@
         <f t="shared" si="32"/>
         <v>0.10469792379647708</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="5">
         <f t="shared" si="33"/>
         <v>89.672319599425009</v>
       </c>
@@ -15151,7 +15172,7 @@
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="7">
+      <c r="H74" s="6">
         <f t="shared" si="31"/>
         <v>2455369.0958333332</v>
       </c>
@@ -15159,7 +15180,7 @@
         <f t="shared" si="32"/>
         <v>0.10469803787359916</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="5">
         <f t="shared" si="33"/>
         <v>89.676426463646749</v>
       </c>
@@ -15275,7 +15296,7 @@
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <f t="shared" si="31"/>
         <v>2455369.0999999996</v>
       </c>
@@ -15283,7 +15304,7 @@
         <f t="shared" si="32"/>
         <v>0.10469815195070849</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="5">
         <f t="shared" si="33"/>
         <v>89.680533327410103</v>
       </c>
@@ -15399,7 +15420,7 @@
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="7">
+      <c r="H76" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1041666665</v>
       </c>
@@ -15407,7 +15428,7 @@
         <f t="shared" si="32"/>
         <v>0.10469826602783057</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="5">
         <f t="shared" si="33"/>
         <v>89.684640191632298</v>
       </c>
@@ -15523,7 +15544,7 @@
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="7">
+      <c r="H77" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1083333334</v>
       </c>
@@ -15531,7 +15552,7 @@
         <f t="shared" si="32"/>
         <v>0.10469838010495265</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="5">
         <f t="shared" si="33"/>
         <v>89.688747055854492</v>
       </c>
@@ -15647,7 +15668,7 @@
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="7">
+      <c r="H78" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1124999998</v>
       </c>
@@ -15655,7 +15676,7 @@
         <f t="shared" si="32"/>
         <v>0.10469849418206198</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="5">
         <f t="shared" si="33"/>
         <v>89.692853919616937</v>
       </c>
@@ -15771,7 +15792,7 @@
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="7">
+      <c r="H79" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1166666667</v>
       </c>
@@ -15779,7 +15800,7 @@
         <f t="shared" si="32"/>
         <v>0.10469860825918406</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="5">
         <f t="shared" si="33"/>
         <v>89.696960783839586</v>
       </c>
@@ -15895,7 +15916,7 @@
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="7">
+      <c r="H80" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1208333331</v>
       </c>
@@ -15903,7 +15924,7 @@
         <f t="shared" si="32"/>
         <v>0.10469872233629339</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="5">
         <f t="shared" si="33"/>
         <v>89.70106764760294</v>
       </c>
@@ -16019,7 +16040,7 @@
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="7">
+      <c r="H81" s="6">
         <f t="shared" si="31"/>
         <v>2455369.125</v>
       </c>
@@ -16027,7 +16048,7 @@
         <f t="shared" si="32"/>
         <v>0.10469883641341547</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="5">
         <f t="shared" si="33"/>
         <v>89.705174511825135</v>
       </c>
@@ -16143,7 +16164,7 @@
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="7">
+      <c r="H82" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1291666664</v>
       </c>
@@ -16151,7 +16172,7 @@
         <f t="shared" si="32"/>
         <v>0.1046989504905248</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="5">
         <f t="shared" si="33"/>
         <v>89.70928137558758</v>
       </c>
@@ -16267,7 +16288,7 @@
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="7">
+      <c r="H83" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1333333333</v>
       </c>
@@ -16275,7 +16296,7 @@
         <f t="shared" si="32"/>
         <v>0.10469906456764688</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="5">
         <f t="shared" si="33"/>
         <v>89.713388239809774</v>
       </c>
@@ -16391,7 +16412,7 @@
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="7">
+      <c r="H84" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1374999997</v>
       </c>
@@ -16399,7 +16420,7 @@
         <f t="shared" si="32"/>
         <v>0.10469917864475621</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="5">
         <f t="shared" si="33"/>
         <v>89.717495103573128</v>
       </c>
@@ -16515,7 +16536,7 @@
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="7">
+      <c r="H85" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1416666666</v>
       </c>
@@ -16523,7 +16544,7 @@
         <f t="shared" si="32"/>
         <v>0.10469929272187829</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="5">
         <f t="shared" si="33"/>
         <v>89.721601967795323</v>
       </c>
@@ -16639,7 +16660,7 @@
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="7">
+      <c r="H86" s="6">
         <f t="shared" si="31"/>
         <v>2455369.145833333</v>
       </c>
@@ -16647,7 +16668,7 @@
         <f t="shared" si="32"/>
         <v>0.10469940679898762</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="5">
         <f t="shared" si="33"/>
         <v>89.725708831558222</v>
       </c>
@@ -16763,7 +16784,7 @@
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="7">
+      <c r="H87" s="6">
         <f t="shared" si="31"/>
         <v>2455369.15</v>
       </c>
@@ -16771,7 +16792,7 @@
         <f t="shared" si="32"/>
         <v>0.1046995208761097</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="5">
         <f t="shared" si="33"/>
         <v>89.729815695780417</v>
       </c>
@@ -16887,7 +16908,7 @@
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="7">
+      <c r="H88" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1541666663</v>
       </c>
@@ -16895,7 +16916,7 @@
         <f t="shared" si="32"/>
         <v>0.10469963495321903</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="5">
         <f t="shared" si="33"/>
         <v>89.733922559543771</v>
       </c>
@@ -17011,7 +17032,7 @@
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="7">
+      <c r="H89" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1583333332</v>
       </c>
@@ -17019,7 +17040,7 @@
         <f t="shared" si="32"/>
         <v>0.10469974903034111</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="5">
         <f t="shared" si="33"/>
         <v>89.738029423765965</v>
       </c>
@@ -17135,7 +17156,7 @@
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="7">
+      <c r="H90" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1624999996</v>
       </c>
@@ -17143,7 +17164,7 @@
         <f t="shared" si="32"/>
         <v>0.10469986310745044</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="5">
         <f t="shared" si="33"/>
         <v>89.74213628752841</v>
       </c>
@@ -17259,7 +17280,7 @@
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="7">
+      <c r="H91" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1666666665</v>
       </c>
@@ -17267,7 +17288,7 @@
         <f t="shared" si="32"/>
         <v>0.10469997718457252</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="5">
         <f t="shared" si="33"/>
         <v>89.746243151750605</v>
       </c>
@@ -17383,7 +17404,7 @@
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="7">
+      <c r="H92" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1708333334</v>
       </c>
@@ -17391,7 +17412,7 @@
         <f t="shared" si="32"/>
         <v>0.10470009126169461</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="5">
         <f t="shared" si="33"/>
         <v>89.750350015973254</v>
       </c>
@@ -17507,7 +17528,7 @@
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="7">
+      <c r="H93" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1749999998</v>
       </c>
@@ -17515,7 +17536,7 @@
         <f t="shared" si="32"/>
         <v>0.10470020533880393</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="5">
         <f t="shared" si="33"/>
         <v>89.754456879736608</v>
       </c>
@@ -17631,7 +17652,7 @@
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="7">
+      <c r="H94" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1791666667</v>
       </c>
@@ -17639,7 +17660,7 @@
         <f t="shared" si="32"/>
         <v>0.10470031941592602</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="5">
         <f t="shared" si="33"/>
         <v>89.758563743957893</v>
       </c>
@@ -17755,7 +17776,7 @@
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="7">
+      <c r="H95" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1833333331</v>
       </c>
@@ -17763,7 +17784,7 @@
         <f t="shared" si="32"/>
         <v>0.10470043349303534</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="5">
         <f t="shared" si="33"/>
         <v>89.762670607721248</v>
       </c>
@@ -17879,7 +17900,7 @@
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="7">
+      <c r="H96" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1875</v>
       </c>
@@ -17887,7 +17908,7 @@
         <f t="shared" si="32"/>
         <v>0.10470054757015743</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="5">
         <f t="shared" si="33"/>
         <v>89.766777471943442</v>
       </c>
@@ -18003,7 +18024,7 @@
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="7">
+      <c r="H97" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1916666664</v>
       </c>
@@ -18011,7 +18032,7 @@
         <f t="shared" si="32"/>
         <v>0.10470066164726675</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="5">
         <f t="shared" si="33"/>
         <v>89.770884335706796</v>
       </c>
@@ -18127,7 +18148,7 @@
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="7">
+      <c r="H98" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1958333333</v>
       </c>
@@ -18135,7 +18156,7 @@
         <f t="shared" si="32"/>
         <v>0.10470077572438884</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="5">
         <f t="shared" si="33"/>
         <v>89.774991199928536</v>
       </c>
@@ -18251,7 +18272,7 @@
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="7">
+      <c r="H99" s="6">
         <f t="shared" si="31"/>
         <v>2455369.1999999997</v>
       </c>
@@ -18259,7 +18280,7 @@
         <f t="shared" si="32"/>
         <v>0.10470088980149816</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="5">
         <f t="shared" si="33"/>
         <v>89.77909806369189</v>
       </c>
@@ -18375,7 +18396,7 @@
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="7">
+      <c r="H100" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2041666666</v>
       </c>
@@ -18383,7 +18404,7 @@
         <f t="shared" si="32"/>
         <v>0.10470100387862025</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="5">
         <f t="shared" si="33"/>
         <v>89.783204927914085</v>
       </c>
@@ -18499,7 +18520,7 @@
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="7">
+      <c r="H101" s="6">
         <f t="shared" si="31"/>
         <v>2455369.208333333</v>
       </c>
@@ -18507,7 +18528,7 @@
         <f t="shared" si="32"/>
         <v>0.10470111795572958</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="5">
         <f t="shared" si="33"/>
         <v>89.787311791677439</v>
       </c>
@@ -18623,7 +18644,7 @@
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="7">
+      <c r="H102" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2124999999</v>
       </c>
@@ -18631,7 +18652,7 @@
         <f t="shared" si="32"/>
         <v>0.10470123203285166</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="5">
         <f t="shared" si="33"/>
         <v>89.791418655898724</v>
       </c>
@@ -18747,7 +18768,7 @@
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="7">
+      <c r="H103" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2166666663</v>
       </c>
@@ -18755,7 +18776,7 @@
         <f t="shared" si="32"/>
         <v>0.10470134610996099</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="5">
         <f t="shared" si="33"/>
         <v>89.795525519662078</v>
       </c>
@@ -18871,7 +18892,7 @@
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="7">
+      <c r="H104" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2208333332</v>
       </c>
@@ -18879,7 +18900,7 @@
         <f t="shared" si="32"/>
         <v>0.10470146018708307</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="5">
         <f t="shared" si="33"/>
         <v>89.799632383884727</v>
       </c>
@@ -18995,7 +19016,7 @@
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="7">
+      <c r="H105" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2249999996</v>
       </c>
@@ -19003,7 +19024,7 @@
         <f t="shared" si="32"/>
         <v>0.1047015742641924</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="5">
         <f t="shared" si="33"/>
         <v>89.803739247647627</v>
       </c>
@@ -19119,7 +19140,7 @@
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="7">
+      <c r="H106" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2291666665</v>
       </c>
@@ -19127,7 +19148,7 @@
         <f t="shared" si="32"/>
         <v>0.10470168834131448</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="5">
         <f t="shared" si="33"/>
         <v>89.807846111869367</v>
       </c>
@@ -19243,7 +19264,7 @@
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="7">
+      <c r="H107" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2333333334</v>
       </c>
@@ -19251,7 +19272,7 @@
         <f t="shared" si="32"/>
         <v>0.10470180241843656</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="5">
         <f t="shared" si="33"/>
         <v>89.811952976091561</v>
       </c>
@@ -19367,7 +19388,7 @@
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
-      <c r="H108" s="7">
+      <c r="H108" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2374999998</v>
       </c>
@@ -19375,7 +19396,7 @@
         <f t="shared" si="32"/>
         <v>0.10470191649554589</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="5">
         <f t="shared" si="33"/>
         <v>89.816059839854915</v>
       </c>
@@ -19491,7 +19512,7 @@
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="7">
+      <c r="H109" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2416666667</v>
       </c>
@@ -19499,7 +19520,7 @@
         <f t="shared" si="32"/>
         <v>0.10470203057266797</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="5">
         <f t="shared" si="33"/>
         <v>89.820166704077565</v>
       </c>
@@ -19615,7 +19636,7 @@
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="7">
+      <c r="H110" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2458333331</v>
       </c>
@@ -19623,7 +19644,7 @@
         <f t="shared" si="32"/>
         <v>0.1047021446497773</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="5">
         <f t="shared" si="33"/>
         <v>89.824273567840009</v>
       </c>
@@ -19739,7 +19760,7 @@
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="7">
+      <c r="H111" s="6">
         <f t="shared" si="31"/>
         <v>2455369.25</v>
       </c>
@@ -19747,7 +19768,7 @@
         <f t="shared" si="32"/>
         <v>0.10470225872689938</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="5">
         <f t="shared" si="33"/>
         <v>89.828380432062204</v>
       </c>
@@ -19863,7 +19884,7 @@
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="7">
+      <c r="H112" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2541666664</v>
       </c>
@@ -19871,7 +19892,7 @@
         <f t="shared" si="32"/>
         <v>0.10470237280400871</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="5">
         <f t="shared" si="33"/>
         <v>89.832487295825558</v>
       </c>
@@ -19987,7 +20008,7 @@
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="7">
+      <c r="H113" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2583333333</v>
       </c>
@@ -19995,7 +20016,7 @@
         <f t="shared" si="32"/>
         <v>0.10470248688113079</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="5">
         <f t="shared" si="33"/>
         <v>89.836594160047753</v>
       </c>
@@ -20111,7 +20132,7 @@
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="7">
+      <c r="H114" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2624999997</v>
       </c>
@@ -20119,7 +20140,7 @@
         <f t="shared" si="32"/>
         <v>0.10470260095824013</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="5">
         <f t="shared" si="33"/>
         <v>89.840701023810652</v>
       </c>
@@ -20235,7 +20256,7 @@
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="7">
+      <c r="H115" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2666666666</v>
       </c>
@@ -20243,7 +20264,7 @@
         <f t="shared" si="32"/>
         <v>0.1047027150353622</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="5">
         <f t="shared" si="33"/>
         <v>89.844807888032847</v>
       </c>
@@ -20359,7 +20380,7 @@
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="7">
+      <c r="H116" s="6">
         <f t="shared" si="31"/>
         <v>2455369.270833333</v>
       </c>
@@ -20367,7 +20388,7 @@
         <f t="shared" si="32"/>
         <v>0.10470282911247154</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="5">
         <f t="shared" si="33"/>
         <v>89.848914751796201</v>
       </c>
@@ -20483,7 +20504,7 @@
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="7">
+      <c r="H117" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2749999999</v>
       </c>
@@ -20491,7 +20512,7 @@
         <f t="shared" si="32"/>
         <v>0.10470294318959361</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="5">
         <f t="shared" si="33"/>
         <v>89.853021616018395</v>
       </c>
@@ -20607,7 +20628,7 @@
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="7">
+      <c r="H118" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2791666663</v>
       </c>
@@ -20615,7 +20636,7 @@
         <f t="shared" si="32"/>
         <v>0.10470305726670295</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="5">
         <f t="shared" si="33"/>
         <v>89.857128479781295</v>
       </c>
@@ -20731,7 +20752,7 @@
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="7">
+      <c r="H119" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2833333332</v>
       </c>
@@ -20739,7 +20760,7 @@
         <f t="shared" si="32"/>
         <v>0.10470317134382502</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="5">
         <f t="shared" si="33"/>
         <v>89.861235344003035</v>
       </c>
@@ -20855,7 +20876,7 @@
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="7">
+      <c r="H120" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2874999996</v>
       </c>
@@ -20863,7 +20884,7 @@
         <f t="shared" si="32"/>
         <v>0.10470328542093436</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="5">
         <f t="shared" si="33"/>
         <v>89.865342207766844</v>
       </c>
@@ -20979,7 +21000,7 @@
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="7">
+      <c r="H121" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2916666665</v>
       </c>
@@ -20987,7 +21008,7 @@
         <f t="shared" si="32"/>
         <v>0.10470339949805645</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="5">
         <f t="shared" si="33"/>
         <v>89.869449071989038</v>
       </c>
@@ -21103,7 +21124,7 @@
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="7">
+      <c r="H122" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2958333334</v>
       </c>
@@ -21111,7 +21132,7 @@
         <f t="shared" si="32"/>
         <v>0.10470351357517851</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="5">
         <f t="shared" si="33"/>
         <v>89.873555936210323</v>
       </c>
@@ -21227,7 +21248,7 @@
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="7">
+      <c r="H123" s="6">
         <f t="shared" si="31"/>
         <v>2455369.2999999998</v>
       </c>
@@ -21235,7 +21256,7 @@
         <f t="shared" si="32"/>
         <v>0.10470362765228786</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="5">
         <f t="shared" si="33"/>
         <v>89.877662799974132</v>
       </c>
@@ -21351,7 +21372,7 @@
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="7">
+      <c r="H124" s="6">
         <f t="shared" si="31"/>
         <v>2455369.3041666667</v>
       </c>
@@ -21359,7 +21380,7 @@
         <f t="shared" si="32"/>
         <v>0.10470374172940992</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="5">
         <f t="shared" si="33"/>
         <v>89.881769664195872</v>
       </c>
@@ -21475,7 +21496,7 @@
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="7">
+      <c r="H125" s="6">
         <f t="shared" si="31"/>
         <v>2455369.3083333331</v>
       </c>
@@ -21483,7 +21504,7 @@
         <f t="shared" si="32"/>
         <v>0.10470385580651927</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="5">
         <f t="shared" si="33"/>
         <v>89.885876527959681</v>
       </c>
@@ -21599,7 +21620,7 @@
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="7">
+      <c r="H126" s="6">
         <f t="shared" si="31"/>
         <v>2455369.3125</v>
       </c>
@@ -21607,7 +21628,7 @@
         <f t="shared" si="32"/>
         <v>0.10470396988364133</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="5">
         <f t="shared" si="33"/>
         <v>89.889983392181421</v>
       </c>
@@ -21723,7 +21744,7 @@
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="7">
+      <c r="H127" s="6">
         <f t="shared" si="31"/>
         <v>2455369.3166666664</v>
       </c>
@@ -21731,7 +21752,7 @@
         <f t="shared" si="32"/>
         <v>0.10470408396075068</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="5">
         <f t="shared" si="33"/>
         <v>89.89409025594432</v>
       </c>
@@ -21847,7 +21868,7 @@
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="7">
+      <c r="H128" s="6">
         <f t="shared" si="31"/>
         <v>2455369.3208333333</v>
       </c>
@@ -21855,7 +21876,7 @@
         <f t="shared" si="32"/>
         <v>0.10470419803787276</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="5">
         <f t="shared" si="33"/>
         <v>89.898197120166969</v>
       </c>
@@ -21971,7 +21992,7 @@
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="7">
+      <c r="H129" s="6">
         <f t="shared" si="31"/>
         <v>2455369.3249999997</v>
       </c>
@@ -21979,7 +22000,7 @@
         <f t="shared" si="32"/>
         <v>0.10470431211498209</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="5">
         <f t="shared" si="33"/>
         <v>89.902303983929869</v>
       </c>
@@ -22095,7 +22116,7 @@
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="7">
+      <c r="H130" s="6">
         <f t="shared" ref="H130:H193" si="61">D130+2415018.5+E130-$B$5/24</f>
         <v>2455369.3291666666</v>
       </c>
@@ -22103,7 +22124,7 @@
         <f t="shared" ref="I130:I193" si="62">(H130-2451545)/36525</f>
         <v>0.10470442619210417</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="5">
         <f t="shared" ref="K130:K193" si="63">MOD(280.46646+I130*(36000.76983+I130*0.0003032),360)</f>
         <v>89.906410848152518</v>
       </c>
@@ -22219,7 +22240,7 @@
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="7">
+      <c r="H131" s="6">
         <f t="shared" si="61"/>
         <v>2455369.333333333</v>
       </c>
@@ -22227,7 +22248,7 @@
         <f t="shared" si="62"/>
         <v>0.1047045402692135</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="5">
         <f t="shared" si="63"/>
         <v>89.910517711914963</v>
       </c>
@@ -22343,7 +22364,7 @@
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="7">
+      <c r="H132" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3374999999</v>
       </c>
@@ -22351,7 +22372,7 @@
         <f t="shared" si="62"/>
         <v>0.10470465434633558</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="5">
         <f t="shared" si="63"/>
         <v>89.914624576137157</v>
       </c>
@@ -22467,7 +22488,7 @@
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="7">
+      <c r="H133" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3416666663</v>
       </c>
@@ -22475,7 +22496,7 @@
         <f t="shared" si="62"/>
         <v>0.10470476842344491</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="5">
         <f t="shared" si="63"/>
         <v>89.918731439900512</v>
       </c>
@@ -22591,7 +22612,7 @@
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="7">
+      <c r="H134" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3458333332</v>
       </c>
@@ -22599,7 +22620,7 @@
         <f t="shared" si="62"/>
         <v>0.10470488250056699</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="5">
         <f t="shared" si="63"/>
         <v>89.922838304122706</v>
       </c>
@@ -22715,7 +22736,7 @@
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="7">
+      <c r="H135" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3499999996</v>
       </c>
@@ -22723,7 +22744,7 @@
         <f t="shared" si="62"/>
         <v>0.10470499657767632</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="5">
         <f t="shared" si="63"/>
         <v>89.926945167885606</v>
       </c>
@@ -22839,7 +22860,7 @@
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="7">
+      <c r="H136" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3541666665</v>
       </c>
@@ -22847,7 +22868,7 @@
         <f t="shared" si="62"/>
         <v>0.1047051106547984</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="5">
         <f t="shared" si="63"/>
         <v>89.9310520321078</v>
       </c>
@@ -22963,7 +22984,7 @@
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="7">
+      <c r="H137" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3583333334</v>
       </c>
@@ -22971,7 +22992,7 @@
         <f t="shared" si="62"/>
         <v>0.10470522473192048</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="5">
         <f t="shared" si="63"/>
         <v>89.935158896329995</v>
       </c>
@@ -23087,7 +23108,7 @@
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="7">
+      <c r="H138" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3624999998</v>
       </c>
@@ -23095,7 +23116,7 @@
         <f t="shared" si="62"/>
         <v>0.10470533880902981</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="5">
         <f t="shared" si="63"/>
         <v>89.939265760093349</v>
       </c>
@@ -23211,7 +23232,7 @@
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="7">
+      <c r="H139" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3666666667</v>
       </c>
@@ -23219,7 +23240,7 @@
         <f t="shared" si="62"/>
         <v>0.10470545288615189</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="5">
         <f t="shared" si="63"/>
         <v>89.943372624315089</v>
       </c>
@@ -23335,7 +23356,7 @@
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="7">
+      <c r="H140" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3708333331</v>
       </c>
@@ -23343,7 +23364,7 @@
         <f t="shared" si="62"/>
         <v>0.10470556696326122</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="5">
         <f t="shared" si="63"/>
         <v>89.947479488077988</v>
       </c>
@@ -23459,7 +23480,7 @@
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="7">
+      <c r="H141" s="6">
         <f t="shared" si="61"/>
         <v>2455369.375</v>
       </c>
@@ -23467,7 +23488,7 @@
         <f t="shared" si="62"/>
         <v>0.1047056810403833</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="5">
         <f t="shared" si="63"/>
         <v>89.951586352300637</v>
       </c>
@@ -23583,7 +23604,7 @@
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="7">
+      <c r="H142" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3791666664</v>
       </c>
@@ -23591,7 +23612,7 @@
         <f t="shared" si="62"/>
         <v>0.10470579511749263</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="5">
         <f t="shared" si="63"/>
         <v>89.955693216063992</v>
       </c>
@@ -23707,7 +23728,7 @@
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="7">
+      <c r="H143" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3833333333</v>
       </c>
@@ -23715,7 +23736,7 @@
         <f t="shared" si="62"/>
         <v>0.10470590919461471</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="5">
         <f t="shared" si="63"/>
         <v>89.959800080285277</v>
       </c>
@@ -23831,7 +23852,7 @@
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="7">
+      <c r="H144" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3874999997</v>
       </c>
@@ -23839,7 +23860,7 @@
         <f t="shared" si="62"/>
         <v>0.10470602327172404</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="5">
         <f t="shared" si="63"/>
         <v>89.963906944048631</v>
       </c>
@@ -23955,7 +23976,7 @@
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="7">
+      <c r="H145" s="6">
         <f t="shared" si="61"/>
         <v>2455369.3916666666</v>
       </c>
@@ -23963,7 +23984,7 @@
         <f t="shared" si="62"/>
         <v>0.10470613734884612</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="5">
         <f t="shared" si="63"/>
         <v>89.968013808270825</v>
       </c>
@@ -24079,7 +24100,7 @@
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="7">
+      <c r="H146" s="6">
         <f t="shared" si="61"/>
         <v>2455369.395833333</v>
       </c>
@@ -24087,7 +24108,7 @@
         <f t="shared" si="62"/>
         <v>0.10470625142595545</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="5">
         <f t="shared" si="63"/>
         <v>89.97212067203418</v>
       </c>
@@ -24203,7 +24224,7 @@
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="7">
+      <c r="H147" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4</v>
       </c>
@@ -24211,7 +24232,7 @@
         <f t="shared" si="62"/>
         <v>0.10470636550307753</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="5">
         <f t="shared" si="63"/>
         <v>89.976227536255919</v>
       </c>
@@ -24327,7 +24348,7 @@
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="7">
+      <c r="H148" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4041666663</v>
       </c>
@@ -24335,7 +24356,7 @@
         <f t="shared" si="62"/>
         <v>0.10470647958018686</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="5">
         <f t="shared" si="63"/>
         <v>89.980334400019274</v>
       </c>
@@ -24451,7 +24472,7 @@
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="7">
+      <c r="H149" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4083333332</v>
       </c>
@@ -24459,7 +24480,7 @@
         <f t="shared" si="62"/>
         <v>0.10470659365730894</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="5">
         <f t="shared" si="63"/>
         <v>89.984441264241468</v>
       </c>
@@ -24575,7 +24596,7 @@
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="7">
+      <c r="H150" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4124999996</v>
       </c>
@@ -24583,7 +24604,7 @@
         <f t="shared" si="62"/>
         <v>0.10470670773441827</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="5">
         <f t="shared" si="63"/>
         <v>89.988548128004823</v>
       </c>
@@ -24699,7 +24720,7 @@
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="7">
+      <c r="H151" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4166666665</v>
       </c>
@@ -24707,7 +24728,7 @@
         <f t="shared" si="62"/>
         <v>0.10470682181154035</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="5">
         <f t="shared" si="63"/>
         <v>89.992654992226107</v>
       </c>
@@ -24823,7 +24844,7 @@
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="7">
+      <c r="H152" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4208333334</v>
       </c>
@@ -24831,7 +24852,7 @@
         <f t="shared" si="62"/>
         <v>0.10470693588866244</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="5">
         <f t="shared" si="63"/>
         <v>89.996761856448757</v>
       </c>
@@ -24947,7 +24968,7 @@
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="7">
+      <c r="H153" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4249999998</v>
       </c>
@@ -24955,7 +24976,7 @@
         <f t="shared" si="62"/>
         <v>0.10470704996577176</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="5">
         <f t="shared" si="63"/>
         <v>90.000868720212111</v>
       </c>
@@ -25071,7 +25092,7 @@
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="7">
+      <c r="H154" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4291666667</v>
       </c>
@@ -25079,7 +25100,7 @@
         <f t="shared" si="62"/>
         <v>0.10470716404289385</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="5">
         <f t="shared" si="63"/>
         <v>90.004975584434305</v>
       </c>
@@ -25195,7 +25216,7 @@
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="7">
+      <c r="H155" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4333333331</v>
       </c>
@@ -25203,7 +25224,7 @@
         <f t="shared" si="62"/>
         <v>0.10470727812000317</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="5">
         <f t="shared" si="63"/>
         <v>90.00908244819675</v>
       </c>
@@ -25319,7 +25340,7 @@
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="7">
+      <c r="H156" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4375</v>
       </c>
@@ -25327,7 +25348,7 @@
         <f t="shared" si="62"/>
         <v>0.10470739219712526</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="5">
         <f t="shared" si="63"/>
         <v>90.013189312418945</v>
       </c>
@@ -25443,7 +25464,7 @@
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="7">
+      <c r="H157" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4416666664</v>
       </c>
@@ -25451,7 +25472,7 @@
         <f t="shared" si="62"/>
         <v>0.10470750627423459</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="5">
         <f t="shared" si="63"/>
         <v>90.017296176182299</v>
       </c>
@@ -25567,7 +25588,7 @@
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="7">
+      <c r="H158" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4458333333</v>
       </c>
@@ -25575,7 +25596,7 @@
         <f t="shared" si="62"/>
         <v>0.10470762035135667</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="5">
         <f t="shared" si="63"/>
         <v>90.021403040404948</v>
       </c>
@@ -25691,7 +25712,7 @@
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="7">
+      <c r="H159" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4499999997</v>
       </c>
@@ -25699,7 +25720,7 @@
         <f t="shared" si="62"/>
         <v>0.104707734428466</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="5">
         <f t="shared" si="63"/>
         <v>90.025509904167393</v>
       </c>
@@ -25815,7 +25836,7 @@
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="7">
+      <c r="H160" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4541666666</v>
       </c>
@@ -25823,7 +25844,7 @@
         <f t="shared" si="62"/>
         <v>0.10470784850558808</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="5">
         <f t="shared" si="63"/>
         <v>90.029616768389587</v>
       </c>
@@ -25939,7 +25960,7 @@
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="7">
+      <c r="H161" s="6">
         <f t="shared" si="61"/>
         <v>2455369.458333333</v>
       </c>
@@ -25947,7 +25968,7 @@
         <f t="shared" si="62"/>
         <v>0.10470796258269741</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="5">
         <f t="shared" si="63"/>
         <v>90.033723632152942</v>
       </c>
@@ -26063,7 +26084,7 @@
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="7">
+      <c r="H162" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4624999999</v>
       </c>
@@ -26071,7 +26092,7 @@
         <f t="shared" si="62"/>
         <v>0.10470807665981949</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="5">
         <f t="shared" si="63"/>
         <v>90.037830496375136</v>
       </c>
@@ -26187,7 +26208,7 @@
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="7">
+      <c r="H163" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4666666663</v>
       </c>
@@ -26195,7 +26216,7 @@
         <f t="shared" si="62"/>
         <v>0.10470819073692882</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="5">
         <f t="shared" si="63"/>
         <v>90.041937360137581</v>
       </c>
@@ -26311,7 +26332,7 @@
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="7">
+      <c r="H164" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4708333332</v>
       </c>
@@ -26319,7 +26340,7 @@
         <f t="shared" si="62"/>
         <v>0.1047083048140509</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="5">
         <f t="shared" si="63"/>
         <v>90.04604422436023</v>
       </c>
@@ -26435,7 +26456,7 @@
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="7">
+      <c r="H165" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4749999996</v>
       </c>
@@ -26443,7 +26464,7 @@
         <f t="shared" si="62"/>
         <v>0.10470841889116023</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="5">
         <f t="shared" si="63"/>
         <v>90.05015108812313</v>
       </c>
@@ -26559,7 +26580,7 @@
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="7">
+      <c r="H166" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4791666665</v>
       </c>
@@ -26567,7 +26588,7 @@
         <f t="shared" si="62"/>
         <v>0.10470853296828231</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="5">
         <f t="shared" si="63"/>
         <v>90.054257952345779</v>
       </c>
@@ -26683,7 +26704,7 @@
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="7">
+      <c r="H167" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4833333334</v>
       </c>
@@ -26691,7 +26712,7 @@
         <f t="shared" si="62"/>
         <v>0.10470864704540439</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="5">
         <f t="shared" si="63"/>
         <v>90.058364816567064</v>
       </c>
@@ -26807,7 +26828,7 @@
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="7">
+      <c r="H168" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4874999998</v>
       </c>
@@ -26815,7 +26836,7 @@
         <f t="shared" si="62"/>
         <v>0.10470876112251372</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="5">
         <f t="shared" si="63"/>
         <v>90.062471680330418</v>
       </c>
@@ -26931,7 +26952,7 @@
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="7">
+      <c r="H169" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4916666667</v>
       </c>
@@ -26939,7 +26960,7 @@
         <f t="shared" si="62"/>
         <v>0.1047088751996358</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="5">
         <f t="shared" si="63"/>
         <v>90.066578544553067</v>
       </c>
@@ -27055,7 +27076,7 @@
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="H170" s="7">
+      <c r="H170" s="6">
         <f t="shared" si="61"/>
         <v>2455369.4958333331</v>
       </c>
@@ -27063,7 +27084,7 @@
         <f t="shared" si="62"/>
         <v>0.10470898927674513</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="5">
         <f t="shared" si="63"/>
         <v>90.070685408315967</v>
       </c>
@@ -27179,7 +27200,7 @@
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="H171" s="7">
+      <c r="H171" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5</v>
       </c>
@@ -27187,7 +27208,7 @@
         <f t="shared" si="62"/>
         <v>0.10470910335386721</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="5">
         <f t="shared" si="63"/>
         <v>90.074792272537707</v>
       </c>
@@ -27303,7 +27324,7 @@
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="7">
+      <c r="H172" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5041666664</v>
       </c>
@@ -27311,7 +27332,7 @@
         <f t="shared" si="62"/>
         <v>0.10470921743097654</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="5">
         <f t="shared" si="63"/>
         <v>90.078899136301061</v>
       </c>
@@ -27427,7 +27448,7 @@
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="7">
+      <c r="H173" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5083333333</v>
       </c>
@@ -27435,7 +27456,7 @@
         <f t="shared" si="62"/>
         <v>0.10470933150809862</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="5">
         <f t="shared" si="63"/>
         <v>90.083006000523255</v>
       </c>
@@ -27551,7 +27572,7 @@
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="7">
+      <c r="H174" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5124999997</v>
       </c>
@@ -27559,7 +27580,7 @@
         <f t="shared" si="62"/>
         <v>0.10470944558520795</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="5">
         <f t="shared" si="63"/>
         <v>90.08711286428661</v>
       </c>
@@ -27675,7 +27696,7 @@
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="7">
+      <c r="H175" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5166666666</v>
       </c>
@@ -27683,7 +27704,7 @@
         <f t="shared" si="62"/>
         <v>0.10470955966233003</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="5">
         <f t="shared" si="63"/>
         <v>90.091219728508349</v>
       </c>
@@ -27799,7 +27820,7 @@
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="7">
+      <c r="H176" s="6">
         <f t="shared" si="61"/>
         <v>2455369.520833333</v>
       </c>
@@ -27807,7 +27828,7 @@
         <f t="shared" si="62"/>
         <v>0.10470967373943937</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="5">
         <f t="shared" si="63"/>
         <v>90.095326592271704</v>
       </c>
@@ -27923,7 +27944,7 @@
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="7">
+      <c r="H177" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5249999999</v>
       </c>
@@ -27931,7 +27952,7 @@
         <f t="shared" si="62"/>
         <v>0.10470978781656144</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="5">
         <f t="shared" si="63"/>
         <v>90.099433456493898</v>
       </c>
@@ -28047,7 +28068,7 @@
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="7">
+      <c r="H178" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5291666663</v>
       </c>
@@ -28055,7 +28076,7 @@
         <f t="shared" si="62"/>
         <v>0.10470990189367078</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="5">
         <f t="shared" si="63"/>
         <v>90.103540320257707</v>
       </c>
@@ -28171,7 +28192,7 @@
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="7">
+      <c r="H179" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5333333332</v>
       </c>
@@ -28179,7 +28200,7 @@
         <f t="shared" si="62"/>
         <v>0.10471001597079285</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="5">
         <f t="shared" si="63"/>
         <v>90.107647184478537</v>
       </c>
@@ -28295,7 +28316,7 @@
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="7">
+      <c r="H180" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5374999996</v>
       </c>
@@ -28303,7 +28324,7 @@
         <f t="shared" si="62"/>
         <v>0.10471013004790219</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="5">
         <f t="shared" si="63"/>
         <v>90.111754048242346</v>
       </c>
@@ -28419,7 +28440,7 @@
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="7">
+      <c r="H181" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5416666665</v>
       </c>
@@ -28427,7 +28448,7 @@
         <f t="shared" si="62"/>
         <v>0.10471024412502426</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="5">
         <f t="shared" si="63"/>
         <v>90.115860912464086</v>
       </c>
@@ -28543,7 +28564,7 @@
       </c>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="7">
+      <c r="H182" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5458333334</v>
       </c>
@@ -28551,7 +28572,7 @@
         <f t="shared" si="62"/>
         <v>0.10471035820214634</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="5">
         <f t="shared" si="63"/>
         <v>90.119967776686735</v>
       </c>
@@ -28667,7 +28688,7 @@
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="7">
+      <c r="H183" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5499999998</v>
       </c>
@@ -28675,7 +28696,7 @@
         <f t="shared" si="62"/>
         <v>0.10471047227925569</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="5">
         <f t="shared" si="63"/>
         <v>90.124074640449635</v>
       </c>
@@ -28791,7 +28812,7 @@
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="7">
+      <c r="H184" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5541666667</v>
       </c>
@@ -28799,7 +28820,7 @@
         <f t="shared" si="62"/>
         <v>0.10471058635637776</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="5">
         <f t="shared" si="63"/>
         <v>90.128181504671375</v>
       </c>
@@ -28915,7 +28936,7 @@
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
-      <c r="H185" s="7">
+      <c r="H185" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5583333331</v>
       </c>
@@ -28923,7 +28944,7 @@
         <f t="shared" si="62"/>
         <v>0.1047107004334871</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="5">
         <f t="shared" si="63"/>
         <v>90.132288368435184</v>
       </c>
@@ -29039,7 +29060,7 @@
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
-      <c r="H186" s="7">
+      <c r="H186" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5625</v>
       </c>
@@ -29047,7 +29068,7 @@
         <f t="shared" si="62"/>
         <v>0.10471081451060917</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="5">
         <f t="shared" si="63"/>
         <v>90.136395232656923</v>
       </c>
@@ -29163,7 +29184,7 @@
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
-      <c r="H187" s="7">
+      <c r="H187" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5666666664</v>
       </c>
@@ -29171,7 +29192,7 @@
         <f t="shared" si="62"/>
         <v>0.10471092858771851</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="5">
         <f t="shared" si="63"/>
         <v>90.140502096419823</v>
       </c>
@@ -29287,7 +29308,7 @@
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
-      <c r="H188" s="7">
+      <c r="H188" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5708333333</v>
       </c>
@@ -29295,7 +29316,7 @@
         <f t="shared" si="62"/>
         <v>0.10471104266484059</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="5">
         <f t="shared" si="63"/>
         <v>90.144608960642472</v>
       </c>
@@ -29411,7 +29432,7 @@
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="7">
+      <c r="H189" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5749999997</v>
       </c>
@@ -29419,7 +29440,7 @@
         <f t="shared" si="62"/>
         <v>0.10471115674194992</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="5">
         <f t="shared" si="63"/>
         <v>90.148715824405826</v>
       </c>
@@ -29535,7 +29556,7 @@
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
-      <c r="H190" s="7">
+      <c r="H190" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5791666666</v>
       </c>
@@ -29543,7 +29564,7 @@
         <f t="shared" si="62"/>
         <v>0.104711270819072</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="5">
         <f t="shared" si="63"/>
         <v>90.152822688628021</v>
       </c>
@@ -29659,7 +29680,7 @@
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="7">
+      <c r="H191" s="6">
         <f t="shared" si="61"/>
         <v>2455369.583333333</v>
       </c>
@@ -29667,7 +29688,7 @@
         <f t="shared" si="62"/>
         <v>0.10471138489618133</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="5">
         <f t="shared" si="63"/>
         <v>90.156929552391375</v>
       </c>
@@ -29783,7 +29804,7 @@
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
-      <c r="H192" s="7">
+      <c r="H192" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5874999999</v>
       </c>
@@ -29791,7 +29812,7 @@
         <f t="shared" si="62"/>
         <v>0.10471149897330341</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="5">
         <f t="shared" si="63"/>
         <v>90.16103641661266</v>
       </c>
@@ -29907,7 +29928,7 @@
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
-      <c r="H193" s="7">
+      <c r="H193" s="6">
         <f t="shared" si="61"/>
         <v>2455369.5916666663</v>
       </c>
@@ -29915,7 +29936,7 @@
         <f t="shared" si="62"/>
         <v>0.10471161305041274</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="5">
         <f t="shared" si="63"/>
         <v>90.165143280376014</v>
       </c>
@@ -30031,7 +30052,7 @@
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="7">
+      <c r="H194" s="6">
         <f t="shared" ref="H194:H241" si="91">D194+2415018.5+E194-$B$5/24</f>
         <v>2455369.5958333332</v>
       </c>
@@ -30039,7 +30060,7 @@
         <f t="shared" ref="I194:I257" si="92">(H194-2451545)/36525</f>
         <v>0.10471172712753482</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="5">
         <f t="shared" ref="K194:K241" si="93">MOD(280.46646+I194*(36000.76983+I194*0.0003032),360)</f>
         <v>90.169250144598209</v>
       </c>
@@ -30155,7 +30176,7 @@
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="7">
+      <c r="H195" s="6">
         <f t="shared" si="91"/>
         <v>2455369.5999999996</v>
       </c>
@@ -30163,7 +30184,7 @@
         <f t="shared" si="92"/>
         <v>0.10471184120464415</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="5">
         <f t="shared" si="93"/>
         <v>90.173357008361563</v>
       </c>
@@ -30279,7 +30300,7 @@
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="7">
+      <c r="H196" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6041666665</v>
       </c>
@@ -30287,7 +30308,7 @@
         <f t="shared" si="92"/>
         <v>0.10471195528176623</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="5">
         <f t="shared" si="93"/>
         <v>90.177463872583303</v>
       </c>
@@ -30403,7 +30424,7 @@
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="7">
+      <c r="H197" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6083333334</v>
       </c>
@@ -30411,7 +30432,7 @@
         <f t="shared" si="92"/>
         <v>0.10471206935888831</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="5">
         <f t="shared" si="93"/>
         <v>90.181570736805497</v>
       </c>
@@ -30527,7 +30548,7 @@
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
-      <c r="H198" s="7">
+      <c r="H198" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6124999998</v>
       </c>
@@ -30535,7 +30556,7 @@
         <f t="shared" si="92"/>
         <v>0.10471218343599764</v>
       </c>
-      <c r="K198">
+      <c r="K198" s="5">
         <f t="shared" si="93"/>
         <v>90.185677600568852</v>
       </c>
@@ -30651,7 +30672,7 @@
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
-      <c r="H199" s="7">
+      <c r="H199" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6166666667</v>
       </c>
@@ -30659,7 +30680,7 @@
         <f t="shared" si="92"/>
         <v>0.10471229751311972</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="5">
         <f t="shared" si="93"/>
         <v>90.189784464791046</v>
       </c>
@@ -30775,7 +30796,7 @@
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
-      <c r="H200" s="7">
+      <c r="H200" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6208333331</v>
       </c>
@@ -30783,7 +30804,7 @@
         <f t="shared" si="92"/>
         <v>0.10471241159022905</v>
       </c>
-      <c r="K200">
+      <c r="K200" s="5">
         <f t="shared" si="93"/>
         <v>90.193891328553946</v>
       </c>
@@ -30899,7 +30920,7 @@
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
-      <c r="H201" s="7">
+      <c r="H201" s="6">
         <f t="shared" si="91"/>
         <v>2455369.625</v>
       </c>
@@ -30907,7 +30928,7 @@
         <f t="shared" si="92"/>
         <v>0.10471252566735113</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="5">
         <f t="shared" si="93"/>
         <v>90.19799819277614</v>
       </c>
@@ -31023,7 +31044,7 @@
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
-      <c r="H202" s="7">
+      <c r="H202" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6291666664</v>
       </c>
@@ -31031,7 +31052,7 @@
         <f t="shared" si="92"/>
         <v>0.10471263974446046</v>
       </c>
-      <c r="K202">
+      <c r="K202" s="5">
         <f t="shared" si="93"/>
         <v>90.202105056539494</v>
       </c>
@@ -31147,7 +31168,7 @@
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
-      <c r="H203" s="7">
+      <c r="H203" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6333333333</v>
       </c>
@@ -31155,7 +31176,7 @@
         <f t="shared" si="92"/>
         <v>0.10471275382158254</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="5">
         <f t="shared" si="93"/>
         <v>90.206211920761689</v>
       </c>
@@ -31271,7 +31292,7 @@
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
-      <c r="H204" s="7">
+      <c r="H204" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6374999997</v>
       </c>
@@ -31279,7 +31300,7 @@
         <f t="shared" si="92"/>
         <v>0.10471286789869187</v>
       </c>
-      <c r="K204">
+      <c r="K204" s="5">
         <f t="shared" si="93"/>
         <v>90.210318784524134</v>
       </c>
@@ -31395,7 +31416,7 @@
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
-      <c r="H205" s="7">
+      <c r="H205" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6416666666</v>
       </c>
@@ -31403,7 +31424,7 @@
         <f t="shared" si="92"/>
         <v>0.10471298197581395</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="5">
         <f t="shared" si="93"/>
         <v>90.214425648746328</v>
       </c>
@@ -31519,7 +31540,7 @@
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
-      <c r="H206" s="7">
+      <c r="H206" s="6">
         <f t="shared" si="91"/>
         <v>2455369.645833333</v>
       </c>
@@ -31527,7 +31548,7 @@
         <f t="shared" si="92"/>
         <v>0.10471309605292328</v>
       </c>
-      <c r="K206">
+      <c r="K206" s="5">
         <f t="shared" si="93"/>
         <v>90.218532512509682</v>
       </c>
@@ -31643,7 +31664,7 @@
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
-      <c r="H207" s="7">
+      <c r="H207" s="6">
         <f t="shared" si="91"/>
         <v>2455369.65</v>
       </c>
@@ -31651,7 +31672,7 @@
         <f t="shared" si="92"/>
         <v>0.10471321013004536</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="5">
         <f t="shared" si="93"/>
         <v>90.222639376732332</v>
       </c>
@@ -31767,7 +31788,7 @@
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
-      <c r="H208" s="7">
+      <c r="H208" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6541666663</v>
       </c>
@@ -31775,7 +31796,7 @@
         <f t="shared" si="92"/>
         <v>0.10471332420715469</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="5">
         <f t="shared" si="93"/>
         <v>90.226746240494776</v>
       </c>
@@ -31891,7 +31912,7 @@
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
-      <c r="H209" s="7">
+      <c r="H209" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6583333332</v>
       </c>
@@ -31899,7 +31920,7 @@
         <f t="shared" si="92"/>
         <v>0.10471343828427677</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="5">
         <f t="shared" si="93"/>
         <v>90.230853104716971</v>
       </c>
@@ -32015,7 +32036,7 @@
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="7">
+      <c r="H210" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6624999996</v>
       </c>
@@ -32023,7 +32044,7 @@
         <f t="shared" si="92"/>
         <v>0.1047135523613861</v>
       </c>
-      <c r="K210">
+      <c r="K210" s="5">
         <f t="shared" si="93"/>
         <v>90.234959968480325</v>
       </c>
@@ -32139,7 +32160,7 @@
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
-      <c r="H211" s="7">
+      <c r="H211" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6666666665</v>
       </c>
@@ -32147,7 +32168,7 @@
         <f t="shared" si="92"/>
         <v>0.10471366643850819</v>
       </c>
-      <c r="K211">
+      <c r="K211" s="5">
         <f t="shared" si="93"/>
         <v>90.23906683270252</v>
       </c>
@@ -32263,7 +32284,7 @@
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
-      <c r="H212" s="7">
+      <c r="H212" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6708333334</v>
       </c>
@@ -32271,7 +32292,7 @@
         <f t="shared" si="92"/>
         <v>0.10471378051563027</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="5">
         <f t="shared" si="93"/>
         <v>90.243173696924259</v>
       </c>
@@ -32387,7 +32408,7 @@
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="7">
+      <c r="H213" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6749999998</v>
       </c>
@@ -32395,7 +32416,7 @@
         <f t="shared" si="92"/>
         <v>0.1047138945927396</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="5">
         <f t="shared" si="93"/>
         <v>90.247280560687614</v>
       </c>
@@ -32511,7 +32532,7 @@
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
-      <c r="H214" s="7">
+      <c r="H214" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6791666667</v>
       </c>
@@ -32519,7 +32540,7 @@
         <f t="shared" si="92"/>
         <v>0.10471400866986168</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="5">
         <f t="shared" si="93"/>
         <v>90.251387424909808</v>
       </c>
@@ -32635,7 +32656,7 @@
       </c>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
-      <c r="H215" s="7">
+      <c r="H215" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6833333331</v>
       </c>
@@ -32643,7 +32664,7 @@
         <f t="shared" si="92"/>
         <v>0.10471412274697101</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="5">
         <f t="shared" si="93"/>
         <v>90.255494288673162</v>
       </c>
@@ -32759,7 +32780,7 @@
       </c>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
-      <c r="H216" s="7">
+      <c r="H216" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6875</v>
       </c>
@@ -32767,7 +32788,7 @@
         <f t="shared" si="92"/>
         <v>0.10471423682409309</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="5">
         <f t="shared" si="93"/>
         <v>90.259601152894447</v>
       </c>
@@ -32883,7 +32904,7 @@
       </c>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
-      <c r="H217" s="7">
+      <c r="H217" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6916666664</v>
       </c>
@@ -32891,7 +32912,7 @@
         <f t="shared" si="92"/>
         <v>0.10471435090120242</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="5">
         <f t="shared" si="93"/>
         <v>90.263708016657802</v>
       </c>
@@ -33007,7 +33028,7 @@
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
-      <c r="H218" s="7">
+      <c r="H218" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6958333333</v>
       </c>
@@ -33015,7 +33036,7 @@
         <f t="shared" si="92"/>
         <v>0.1047144649783245</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="5">
         <f t="shared" si="93"/>
         <v>90.267814880880451</v>
       </c>
@@ -33131,7 +33152,7 @@
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
-      <c r="H219" s="7">
+      <c r="H219" s="6">
         <f t="shared" si="91"/>
         <v>2455369.6999999997</v>
       </c>
@@ -33139,7 +33160,7 @@
         <f t="shared" si="92"/>
         <v>0.10471457905543383</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="5">
         <f t="shared" si="93"/>
         <v>90.27192174464335</v>
       </c>
@@ -33255,7 +33276,7 @@
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
-      <c r="H220" s="7">
+      <c r="H220" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7041666666</v>
       </c>
@@ -33263,7 +33284,7 @@
         <f t="shared" si="92"/>
         <v>0.10471469313255591</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="5">
         <f t="shared" si="93"/>
         <v>90.27602860886509</v>
       </c>
@@ -33379,7 +33400,7 @@
       </c>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
-      <c r="H221" s="7">
+      <c r="H221" s="6">
         <f t="shared" si="91"/>
         <v>2455369.708333333</v>
       </c>
@@ -33387,7 +33408,7 @@
         <f t="shared" si="92"/>
         <v>0.10471480720966524</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="5">
         <f t="shared" si="93"/>
         <v>90.280135472628444</v>
       </c>
@@ -33503,7 +33524,7 @@
       </c>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
-      <c r="H222" s="7">
+      <c r="H222" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7124999999</v>
       </c>
@@ -33511,7 +33532,7 @@
         <f t="shared" si="92"/>
         <v>0.10471492128678732</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="5">
         <f t="shared" si="93"/>
         <v>90.284242336850639</v>
       </c>
@@ -33627,7 +33648,7 @@
       </c>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
-      <c r="H223" s="7">
+      <c r="H223" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7166666663</v>
       </c>
@@ -33635,7 +33656,7 @@
         <f t="shared" si="92"/>
         <v>0.10471503536389665</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="5">
         <f t="shared" si="93"/>
         <v>90.288349200613993</v>
       </c>
@@ -33751,7 +33772,7 @@
       </c>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
-      <c r="H224" s="7">
+      <c r="H224" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7208333332</v>
       </c>
@@ -33759,7 +33780,7 @@
         <f t="shared" si="92"/>
         <v>0.10471514944101873</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="5">
         <f t="shared" si="93"/>
         <v>90.292456064835733</v>
       </c>
@@ -33875,7 +33896,7 @@
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
-      <c r="H225" s="7">
+      <c r="H225" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7249999996</v>
       </c>
@@ -33883,7 +33904,7 @@
         <f t="shared" si="92"/>
         <v>0.10471526351812806</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="5">
         <f t="shared" si="93"/>
         <v>90.296562928598632</v>
       </c>
@@ -33999,7 +34020,7 @@
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
-      <c r="H226" s="7">
+      <c r="H226" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7291666665</v>
       </c>
@@ -34007,7 +34028,7 @@
         <f t="shared" si="92"/>
         <v>0.10471537759525014</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="5">
         <f t="shared" si="93"/>
         <v>90.300669792821282</v>
       </c>
@@ -34123,7 +34144,7 @@
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
-      <c r="H227" s="7">
+      <c r="H227" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7333333334</v>
       </c>
@@ -34131,7 +34152,7 @@
         <f t="shared" si="92"/>
         <v>0.10471549167237222</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="5">
         <f t="shared" si="93"/>
         <v>90.304776657043476</v>
       </c>
@@ -34247,7 +34268,7 @@
       </c>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
-      <c r="H228" s="7">
+      <c r="H228" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7374999998</v>
       </c>
@@ -34255,7 +34276,7 @@
         <f t="shared" si="92"/>
         <v>0.10471560574948155</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="5">
         <f t="shared" si="93"/>
         <v>90.308883520805921</v>
       </c>
@@ -34371,7 +34392,7 @@
       </c>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
-      <c r="H229" s="7">
+      <c r="H229" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7416666667</v>
       </c>
@@ -34379,7 +34400,7 @@
         <f t="shared" si="92"/>
         <v>0.10471571982660363</v>
       </c>
-      <c r="K229">
+      <c r="K229" s="5">
         <f t="shared" si="93"/>
         <v>90.31299038502857</v>
       </c>
@@ -34495,7 +34516,7 @@
       </c>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
-      <c r="H230" s="7">
+      <c r="H230" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7458333331</v>
       </c>
@@ -34503,7 +34524,7 @@
         <f t="shared" si="92"/>
         <v>0.10471583390371296</v>
       </c>
-      <c r="K230">
+      <c r="K230" s="5">
         <f t="shared" si="93"/>
         <v>90.31709724879147</v>
       </c>
@@ -34619,7 +34640,7 @@
       </c>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
-      <c r="H231" s="7">
+      <c r="H231" s="6">
         <f t="shared" si="91"/>
         <v>2455369.75</v>
       </c>
@@ -34627,7 +34648,7 @@
         <f t="shared" si="92"/>
         <v>0.10471594798083504</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="5">
         <f t="shared" si="93"/>
         <v>90.321204113014119</v>
       </c>
@@ -34743,7 +34764,7 @@
       </c>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
-      <c r="H232" s="7">
+      <c r="H232" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7541666664</v>
       </c>
@@ -34751,7 +34772,7 @@
         <f t="shared" si="92"/>
         <v>0.10471606205794437</v>
       </c>
-      <c r="K232">
+      <c r="K232" s="5">
         <f t="shared" si="93"/>
         <v>90.325310976776564</v>
       </c>
@@ -34867,7 +34888,7 @@
       </c>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
-      <c r="H233" s="7">
+      <c r="H233" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7583333333</v>
       </c>
@@ -34875,7 +34896,7 @@
         <f t="shared" si="92"/>
         <v>0.10471617613506645</v>
       </c>
-      <c r="K233">
+      <c r="K233" s="5">
         <f t="shared" si="93"/>
         <v>90.329417840998758</v>
       </c>
@@ -34991,7 +35012,7 @@
       </c>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
-      <c r="H234" s="7">
+      <c r="H234" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7624999997</v>
       </c>
@@ -34999,7 +35020,7 @@
         <f t="shared" si="92"/>
         <v>0.10471629021217578</v>
       </c>
-      <c r="K234">
+      <c r="K234" s="5">
         <f t="shared" si="93"/>
         <v>90.333524704762112</v>
       </c>
@@ -35115,7 +35136,7 @@
       </c>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
-      <c r="H235" s="7">
+      <c r="H235" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7666666666</v>
       </c>
@@ -35123,7 +35144,7 @@
         <f t="shared" si="92"/>
         <v>0.10471640428929786</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="5">
         <f t="shared" si="93"/>
         <v>90.337631568984307</v>
       </c>
@@ -35239,7 +35260,7 @@
       </c>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
-      <c r="H236" s="7">
+      <c r="H236" s="6">
         <f t="shared" si="91"/>
         <v>2455369.770833333</v>
       </c>
@@ -35247,7 +35268,7 @@
         <f t="shared" si="92"/>
         <v>0.10471651836640719</v>
       </c>
-      <c r="K236">
+      <c r="K236" s="5">
         <f t="shared" si="93"/>
         <v>90.341738432746752</v>
       </c>
@@ -35363,7 +35384,7 @@
       </c>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
-      <c r="H237" s="7">
+      <c r="H237" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7749999999</v>
       </c>
@@ -35371,7 +35392,7 @@
         <f t="shared" si="92"/>
         <v>0.10471663244352927</v>
       </c>
-      <c r="K237">
+      <c r="K237" s="5">
         <f t="shared" si="93"/>
         <v>90.345845296969401</v>
       </c>
@@ -35487,7 +35508,7 @@
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
-      <c r="H238" s="7">
+      <c r="H238" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7791666663</v>
       </c>
@@ -35495,7 +35516,7 @@
         <f t="shared" si="92"/>
         <v>0.10471674652063861</v>
       </c>
-      <c r="K238">
+      <c r="K238" s="5">
         <f t="shared" si="93"/>
         <v>90.34995216073321</v>
       </c>
@@ -35611,7 +35632,7 @@
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
-      <c r="H239" s="7">
+      <c r="H239" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7833333332</v>
       </c>
@@ -35619,7 +35640,7 @@
         <f t="shared" si="92"/>
         <v>0.10471686059776068</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="5">
         <f t="shared" si="93"/>
         <v>90.35405902495495</v>
       </c>
@@ -35735,7 +35756,7 @@
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
-      <c r="H240" s="7">
+      <c r="H240" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7874999996</v>
       </c>
@@ -35743,7 +35764,7 @@
         <f t="shared" si="92"/>
         <v>0.10471697467487003</v>
       </c>
-      <c r="K240">
+      <c r="K240" s="5">
         <f t="shared" si="93"/>
         <v>90.358165888717849</v>
       </c>
@@ -35859,7 +35880,7 @@
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
-      <c r="H241" s="7">
+      <c r="H241" s="6">
         <f t="shared" si="91"/>
         <v>2455369.7916666665</v>
       </c>
@@ -35867,7 +35888,7 @@
         <f t="shared" si="92"/>
         <v>0.10471708875199209</v>
       </c>
-      <c r="K241">
+      <c r="K241" s="5">
         <f t="shared" si="93"/>
         <v>90.362272752939589</v>
       </c>
@@ -35977,8 +35998,8 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.0457000000000001" bottom="1.0457000000000001" header="0.75000000000000011" footer="0.75000000000000011"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>